--- a/data/Weapon.xlsx
+++ b/data/Weapon.xlsx
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="663">
-  <si>
-    <t>Weapon Name</t>
-  </si>
-  <si>
-    <t>Weapon Type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="662">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>Maximum Damage</t>
@@ -1623,9 +1623,6 @@
   </si>
   <si>
     <t>Incessant Chatter</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Specialization</t>
@@ -6426,31 +6423,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="58" t="s">
         <v>572</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>573</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -6458,16 +6455,16 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -6480,14 +6477,14 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="59"/>
       <c r="E3" s="9"/>
       <c r="F3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -6500,7 +6497,7 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6508,7 +6505,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="59"/>
       <c r="G4" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10" t="s">
@@ -6520,28 +6517,28 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>143</v>
@@ -6552,28 +6549,28 @@
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>81</v>
@@ -6584,18 +6581,18 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
       <c r="D7" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G7" s="60"/>
       <c r="H7" s="60"/>
@@ -6608,28 +6605,28 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>81</v>
@@ -6640,28 +6637,28 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>78</v>
@@ -6672,13 +6669,13 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
       <c r="E10" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
@@ -6692,12 +6689,12 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
       <c r="D11" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E11" s="60"/>
       <c r="F11" s="60"/>
@@ -6712,28 +6709,28 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>81</v>
@@ -6744,11 +6741,11 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B13" s="59"/>
       <c r="C13" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -6764,28 +6761,28 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>78</v>
@@ -6796,28 +6793,28 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>81</v>
@@ -6828,28 +6825,28 @@
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>81</v>
@@ -6860,28 +6857,28 @@
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>81</v>
@@ -6892,18 +6889,18 @@
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G18" s="60"/>
       <c r="H18" s="60"/>
@@ -6916,20 +6913,20 @@
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>78</v>
@@ -6940,12 +6937,12 @@
     </row>
     <row r="20">
       <c r="A20" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
       <c r="D20" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E20" s="60"/>
       <c r="F20" s="60"/>
@@ -6960,10 +6957,10 @@
     </row>
     <row r="21">
       <c r="A21" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
@@ -6980,10 +6977,10 @@
     </row>
     <row r="22">
       <c r="A22" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
@@ -7000,28 +6997,28 @@
     </row>
     <row r="23">
       <c r="A23" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>78</v>
@@ -7032,7 +7029,7 @@
     </row>
     <row r="24">
       <c r="A24" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -7041,7 +7038,7 @@
       <c r="F24" s="59"/>
       <c r="G24" s="59"/>
       <c r="H24" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>81</v>
@@ -7052,10 +7049,10 @@
     </row>
     <row r="25">
       <c r="A25" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
@@ -7072,11 +7069,11 @@
     </row>
     <row r="26">
       <c r="A26" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B26" s="59"/>
       <c r="C26" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
@@ -7092,28 +7089,28 @@
     </row>
     <row r="27">
       <c r="A27" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H27" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="21" t="s">
@@ -7122,20 +7119,20 @@
     </row>
     <row r="28">
       <c r="A28" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E28" s="60"/>
       <c r="F28" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
@@ -7148,28 +7145,28 @@
     </row>
     <row r="29">
       <c r="A29" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G29" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H29" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="21" t="s">
@@ -7178,28 +7175,28 @@
     </row>
     <row r="30">
       <c r="A30" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F30" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G30" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H30" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>81</v>
@@ -7210,7 +7207,7 @@
     </row>
     <row r="31">
       <c r="A31" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
@@ -7218,7 +7215,7 @@
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
       <c r="G31" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H31" s="60"/>
       <c r="I31" s="10" t="s">
@@ -7230,7 +7227,7 @@
     </row>
     <row r="32">
       <c r="A32" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
@@ -7238,7 +7235,7 @@
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
       <c r="G32" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H32" s="60"/>
       <c r="I32" s="10" t="s">
@@ -7250,28 +7247,28 @@
     </row>
     <row r="33">
       <c r="A33" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F33" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G33" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H33" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>78</v>
@@ -7282,28 +7279,28 @@
     </row>
     <row r="34">
       <c r="A34" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H34" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="21" t="s">
@@ -7312,14 +7309,14 @@
     </row>
     <row r="35">
       <c r="A35" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
       <c r="F35" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G35" s="60"/>
       <c r="H35" s="60"/>
@@ -7332,28 +7329,28 @@
     </row>
     <row r="36">
       <c r="A36" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F36" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G36" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H36" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>81</v>
@@ -7364,13 +7361,13 @@
     </row>
     <row r="37">
       <c r="A37" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
       <c r="E37" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
@@ -7384,28 +7381,28 @@
     </row>
     <row r="38">
       <c r="A38" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D38" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G38" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H38" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>78</v>
@@ -7416,28 +7413,28 @@
     </row>
     <row r="39">
       <c r="A39" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F39" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G39" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H39" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="21" t="s">
@@ -7446,20 +7443,20 @@
     </row>
     <row r="40">
       <c r="A40" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>
       <c r="H40" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="21" t="s">
@@ -7468,28 +7465,28 @@
     </row>
     <row r="41">
       <c r="A41" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F41" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G41" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H41" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>78</v>
@@ -7500,28 +7497,28 @@
     </row>
     <row r="42">
       <c r="A42" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G42" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H42" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="21" t="s">
@@ -7530,28 +7527,28 @@
     </row>
     <row r="43">
       <c r="A43" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D43" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E43" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F43" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H43" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>81</v>
@@ -7562,28 +7559,28 @@
     </row>
     <row r="44">
       <c r="A44" s="21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D44" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E44" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G44" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H44" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>81</v>
@@ -7594,11 +7591,11 @@
     </row>
     <row r="45">
       <c r="A45" s="21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B45" s="59"/>
       <c r="C45" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
@@ -7614,7 +7611,7 @@
     </row>
     <row r="46">
       <c r="A46" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
@@ -7623,7 +7620,7 @@
       <c r="F46" s="60"/>
       <c r="G46" s="60"/>
       <c r="H46" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>81</v>
@@ -7634,28 +7631,28 @@
     </row>
     <row r="47">
       <c r="A47" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D47" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F47" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G47" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H47" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>81</v>
@@ -7688,37 +7685,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>624</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>34</v>
@@ -7729,16 +7726,16 @@
         <v>141</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>34</v>
@@ -7749,14 +7746,14 @@
         <v>522</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>34</v>
@@ -7767,14 +7764,14 @@
         <v>276</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>34</v>
@@ -7782,13 +7779,13 @@
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>34</v>
@@ -7796,14 +7793,14 @@
     </row>
     <row r="7">
       <c r="A7" s="46" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>34</v>
@@ -7814,11 +7811,11 @@
         <v>255</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>34</v>
@@ -7826,14 +7823,14 @@
     </row>
     <row r="9">
       <c r="A9" s="47" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>34</v>
@@ -7844,11 +7841,11 @@
         <v>528</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>34</v>
@@ -7856,11 +7853,11 @@
     </row>
     <row r="11">
       <c r="A11" s="46" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>34</v>
@@ -7871,14 +7868,14 @@
         <v>176</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>34</v>
@@ -7886,17 +7883,17 @@
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>34</v>
@@ -7904,17 +7901,17 @@
     </row>
     <row r="14">
       <c r="A14" s="46" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>34</v>
@@ -7944,37 +7941,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>641</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>642</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>22</v>
@@ -7986,14 +7983,14 @@
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D2" s="59"/>
       <c r="E2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>34</v>
@@ -8009,7 +8006,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="59"/>
       <c r="K3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>34</v>
@@ -8022,7 +8019,7 @@
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
       <c r="D4" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E4" s="59"/>
       <c r="L4" s="18" t="s">
@@ -8031,14 +8028,14 @@
     </row>
     <row r="5">
       <c r="A5" s="47" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
       <c r="E5" s="59"/>
       <c r="I5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>34</v>
@@ -8053,7 +8050,7 @@
       <c r="D6" s="59"/>
       <c r="E6" s="59"/>
       <c r="H6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L6" s="18" t="s">
         <v>34</v>
@@ -8061,11 +8058,11 @@
     </row>
     <row r="7">
       <c r="A7" s="47" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="59"/>
@@ -8075,22 +8072,22 @@
     </row>
     <row r="8">
       <c r="A8" s="47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
       <c r="F8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L8" s="18" t="s">
         <v>34</v>
@@ -8101,31 +8098,31 @@
         <v>146</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>34</v>
@@ -8141,7 +8138,7 @@
       <c r="F10" s="59"/>
       <c r="G10" s="59"/>
       <c r="H10" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>34</v>
@@ -8158,7 +8155,7 @@
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
       <c r="I11" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>34</v>
@@ -8166,19 +8163,19 @@
     </row>
     <row r="12">
       <c r="A12" s="47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G12" s="59"/>
       <c r="I12" s="21"/>
@@ -8188,19 +8185,19 @@
     </row>
     <row r="13">
       <c r="A13" s="47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L13" s="18" t="s">
         <v>34</v>
@@ -8215,7 +8212,7 @@
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
       <c r="F14" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L14" s="18" t="s">
         <v>34</v>
@@ -8223,14 +8220,14 @@
     </row>
     <row r="15">
       <c r="A15" s="47" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59"/>
       <c r="F15" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L15" s="18" t="s">
         <v>34</v>
@@ -8243,11 +8240,11 @@
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
       <c r="D16" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E16" s="59"/>
       <c r="H16" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L16" s="18" t="s">
         <v>34</v>
@@ -8258,18 +8255,18 @@
         <v>176</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="46"/>
       <c r="F17" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>34</v>
@@ -8277,13 +8274,13 @@
     </row>
     <row r="18">
       <c r="A18" s="47" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
       <c r="E18" s="46"/>
       <c r="G18" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>34</v>
@@ -8313,19 +8310,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>651</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>652</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>22</v>
@@ -8333,14 +8330,14 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>34</v>
@@ -8352,13 +8349,13 @@
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>34</v>
@@ -8366,17 +8363,17 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>34</v>
@@ -8387,7 +8384,7 @@
         <v>117</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>34</v>
@@ -8399,7 +8396,7 @@
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>34</v>
@@ -8407,11 +8404,11 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>34</v>
@@ -8422,7 +8419,7 @@
         <v>276</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>34</v>
@@ -8430,10 +8427,10 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>34</v>
@@ -8444,10 +8441,10 @@
         <v>176</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>34</v>
@@ -8455,10 +8452,10 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>34</v>
@@ -8466,10 +8463,10 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>34</v>
@@ -8499,22 +8496,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>661</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>22</v>
@@ -8522,19 +8519,19 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F2" s="59"/>
       <c r="G2" s="18" t="s">
@@ -8546,16 +8543,16 @@
         <v>141</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="18" t="s">
@@ -8567,16 +8564,16 @@
         <v>522</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="18" t="s">
@@ -8588,12 +8585,12 @@
         <v>276</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F5" s="59"/>
       <c r="G5" s="18" t="s">
@@ -8605,16 +8602,16 @@
         <v>528</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="18" t="s">
@@ -8626,19 +8623,19 @@
         <v>176</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>34</v>
@@ -8646,13 +8643,13 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>34</v>
@@ -23829,79 +23826,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>537</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="21" t="s">
         <v>540</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>543</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="57" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="21" t="s">
         <v>546</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="57" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>549</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="57" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="21" t="s">
         <v>552</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -23928,7 +23925,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>22</v>
@@ -23936,7 +23933,7 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>34</v>
@@ -23944,7 +23941,7 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>34</v>
@@ -23960,7 +23957,7 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>34</v>
@@ -23968,7 +23965,7 @@
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>34</v>
@@ -23984,7 +23981,7 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>34</v>
@@ -23992,7 +23989,7 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>34</v>
@@ -24000,7 +23997,7 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>34</v>
@@ -24008,7 +24005,7 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>34</v>
@@ -24016,7 +24013,7 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>34</v>
@@ -24024,7 +24021,7 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>34</v>
@@ -24032,7 +24029,7 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>34</v>

--- a/data/Weapon.xlsx
+++ b/data/Weapon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4139" uniqueCount="654">
   <si>
     <t>Name</t>
   </si>
@@ -1625,61 +1625,37 @@
     <t>Incessant Chatter</t>
   </si>
   <si>
-    <t>Specialization</t>
-  </si>
-  <si>
-    <t>Talent</t>
-  </si>
-  <si>
-    <t>Crossbow</t>
-  </si>
-  <si>
-    <t>Survivalist</t>
+    <t>Crossbow (Survivalist)</t>
   </si>
   <si>
     <t>Explosive Bolts</t>
   </si>
   <si>
-    <t>K8-JetStream Flamethrower</t>
-  </si>
-  <si>
-    <t>Firewall</t>
+    <t>K8-JetStream Flamethrower (Firewall)</t>
   </si>
   <si>
     <t>High-Octane Gasoline Mixture</t>
   </si>
   <si>
-    <t>M32A1 Multi-shot Grenade Launcher</t>
-  </si>
-  <si>
-    <t>Demolitionist</t>
+    <t>M32A1 Multi-shot Grenade Launcher (Demolitionist)</t>
   </si>
   <si>
     <t>M406 HE Grenades</t>
   </si>
   <si>
-    <t>Minigun</t>
-  </si>
-  <si>
-    <t>Gunner</t>
+    <t>Minigun (Gunner)</t>
   </si>
   <si>
     <t>A Good Offense</t>
   </si>
   <si>
-    <t>P-017 Launcher</t>
-  </si>
-  <si>
-    <t>Technician</t>
+    <t>P-017 Launcher (Technician)</t>
   </si>
   <si>
     <t>Guided Missiles</t>
   </si>
   <si>
-    <t>TAC-50 C Rifle</t>
-  </si>
-  <si>
-    <t>Sharpshooter</t>
+    <t>TAC-50 C Rifle (Sharpshooter)</t>
   </si>
   <si>
     <t>.50 BMG Rounds</t>
@@ -2252,7 +2228,7 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -6426,28 +6402,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -6455,16 +6431,16 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -6477,14 +6453,14 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="59"/>
       <c r="E3" s="9"/>
       <c r="F3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -6497,7 +6473,7 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6505,7 +6481,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="59"/>
       <c r="G4" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10" t="s">
@@ -6517,28 +6493,28 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>143</v>
@@ -6549,28 +6525,28 @@
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>81</v>
@@ -6581,18 +6557,18 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
       <c r="D7" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G7" s="60"/>
       <c r="H7" s="60"/>
@@ -6605,28 +6581,28 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>81</v>
@@ -6637,28 +6613,28 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>78</v>
@@ -6669,13 +6645,13 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
       <c r="E10" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
@@ -6689,12 +6665,12 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
       <c r="D11" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E11" s="60"/>
       <c r="F11" s="60"/>
@@ -6709,28 +6685,28 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>81</v>
@@ -6741,11 +6717,11 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B13" s="59"/>
       <c r="C13" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -6761,28 +6737,28 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>78</v>
@@ -6793,28 +6769,28 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>81</v>
@@ -6825,28 +6801,28 @@
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>81</v>
@@ -6857,28 +6833,28 @@
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>81</v>
@@ -6889,18 +6865,18 @@
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G18" s="60"/>
       <c r="H18" s="60"/>
@@ -6913,20 +6889,20 @@
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>78</v>
@@ -6937,12 +6913,12 @@
     </row>
     <row r="20">
       <c r="A20" s="21" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
       <c r="D20" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E20" s="60"/>
       <c r="F20" s="60"/>
@@ -6957,10 +6933,10 @@
     </row>
     <row r="21">
       <c r="A21" s="21" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
@@ -6977,10 +6953,10 @@
     </row>
     <row r="22">
       <c r="A22" s="21" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
@@ -6997,28 +6973,28 @@
     </row>
     <row r="23">
       <c r="A23" s="21" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>78</v>
@@ -7029,7 +7005,7 @@
     </row>
     <row r="24">
       <c r="A24" s="21" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -7038,7 +7014,7 @@
       <c r="F24" s="59"/>
       <c r="G24" s="59"/>
       <c r="H24" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>81</v>
@@ -7049,10 +7025,10 @@
     </row>
     <row r="25">
       <c r="A25" s="21" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
@@ -7069,11 +7045,11 @@
     </row>
     <row r="26">
       <c r="A26" s="21" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B26" s="59"/>
       <c r="C26" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
@@ -7089,28 +7065,28 @@
     </row>
     <row r="27">
       <c r="A27" s="21" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H27" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="21" t="s">
@@ -7119,20 +7095,20 @@
     </row>
     <row r="28">
       <c r="A28" s="21" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E28" s="60"/>
       <c r="F28" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
@@ -7145,28 +7121,28 @@
     </row>
     <row r="29">
       <c r="A29" s="21" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G29" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H29" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="21" t="s">
@@ -7175,28 +7151,28 @@
     </row>
     <row r="30">
       <c r="A30" s="21" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F30" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G30" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H30" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>81</v>
@@ -7207,7 +7183,7 @@
     </row>
     <row r="31">
       <c r="A31" s="21" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
@@ -7215,7 +7191,7 @@
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
       <c r="G31" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H31" s="60"/>
       <c r="I31" s="10" t="s">
@@ -7227,7 +7203,7 @@
     </row>
     <row r="32">
       <c r="A32" s="21" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
@@ -7235,7 +7211,7 @@
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
       <c r="G32" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H32" s="60"/>
       <c r="I32" s="10" t="s">
@@ -7247,28 +7223,28 @@
     </row>
     <row r="33">
       <c r="A33" s="21" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F33" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G33" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H33" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>78</v>
@@ -7279,28 +7255,28 @@
     </row>
     <row r="34">
       <c r="A34" s="21" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H34" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="21" t="s">
@@ -7309,14 +7285,14 @@
     </row>
     <row r="35">
       <c r="A35" s="21" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
       <c r="F35" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G35" s="60"/>
       <c r="H35" s="60"/>
@@ -7329,28 +7305,28 @@
     </row>
     <row r="36">
       <c r="A36" s="21" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F36" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G36" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H36" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>81</v>
@@ -7361,13 +7337,13 @@
     </row>
     <row r="37">
       <c r="A37" s="21" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
       <c r="E37" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
@@ -7381,28 +7357,28 @@
     </row>
     <row r="38">
       <c r="A38" s="21" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D38" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G38" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H38" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>78</v>
@@ -7413,28 +7389,28 @@
     </row>
     <row r="39">
       <c r="A39" s="21" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F39" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G39" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H39" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="21" t="s">
@@ -7443,20 +7419,20 @@
     </row>
     <row r="40">
       <c r="A40" s="21" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>
       <c r="H40" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="21" t="s">
@@ -7465,28 +7441,28 @@
     </row>
     <row r="41">
       <c r="A41" s="21" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F41" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G41" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H41" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>78</v>
@@ -7497,28 +7473,28 @@
     </row>
     <row r="42">
       <c r="A42" s="21" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G42" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H42" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="21" t="s">
@@ -7527,28 +7503,28 @@
     </row>
     <row r="43">
       <c r="A43" s="21" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D43" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E43" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F43" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H43" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>81</v>
@@ -7559,28 +7535,28 @@
     </row>
     <row r="44">
       <c r="A44" s="21" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D44" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E44" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G44" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H44" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>81</v>
@@ -7591,11 +7567,11 @@
     </row>
     <row r="45">
       <c r="A45" s="21" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B45" s="59"/>
       <c r="C45" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
@@ -7611,7 +7587,7 @@
     </row>
     <row r="46">
       <c r="A46" s="21" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
@@ -7620,7 +7596,7 @@
       <c r="F46" s="60"/>
       <c r="G46" s="60"/>
       <c r="H46" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>81</v>
@@ -7631,28 +7607,28 @@
     </row>
     <row r="47">
       <c r="A47" s="21" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D47" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F47" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G47" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H47" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>81</v>
@@ -7685,37 +7661,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>34</v>
@@ -7726,16 +7702,16 @@
         <v>141</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>34</v>
@@ -7746,14 +7722,14 @@
         <v>522</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>34</v>
@@ -7764,14 +7740,14 @@
         <v>276</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>34</v>
@@ -7779,13 +7755,13 @@
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>34</v>
@@ -7793,14 +7769,14 @@
     </row>
     <row r="7">
       <c r="A7" s="46" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>34</v>
@@ -7811,11 +7787,11 @@
         <v>255</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>34</v>
@@ -7823,14 +7799,14 @@
     </row>
     <row r="9">
       <c r="A9" s="47" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>34</v>
@@ -7841,11 +7817,11 @@
         <v>528</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>34</v>
@@ -7853,11 +7829,11 @@
     </row>
     <row r="11">
       <c r="A11" s="46" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>34</v>
@@ -7868,14 +7844,14 @@
         <v>176</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>34</v>
@@ -7883,17 +7859,17 @@
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>34</v>
@@ -7901,17 +7877,17 @@
     </row>
     <row r="14">
       <c r="A14" s="46" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>34</v>
@@ -7941,37 +7917,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>633</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>641</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>22</v>
@@ -7983,14 +7959,14 @@
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D2" s="59"/>
       <c r="E2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>34</v>
@@ -8006,7 +7982,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="59"/>
       <c r="K3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>34</v>
@@ -8019,7 +7995,7 @@
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
       <c r="D4" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E4" s="59"/>
       <c r="L4" s="18" t="s">
@@ -8028,14 +8004,14 @@
     </row>
     <row r="5">
       <c r="A5" s="47" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
       <c r="E5" s="59"/>
       <c r="I5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>34</v>
@@ -8050,7 +8026,7 @@
       <c r="D6" s="59"/>
       <c r="E6" s="59"/>
       <c r="H6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L6" s="18" t="s">
         <v>34</v>
@@ -8058,11 +8034,11 @@
     </row>
     <row r="7">
       <c r="A7" s="47" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="59"/>
@@ -8072,22 +8048,22 @@
     </row>
     <row r="8">
       <c r="A8" s="47" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
       <c r="F8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="K8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L8" s="18" t="s">
         <v>34</v>
@@ -8098,31 +8074,31 @@
         <v>146</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="J9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="K9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>34</v>
@@ -8138,7 +8114,7 @@
       <c r="F10" s="59"/>
       <c r="G10" s="59"/>
       <c r="H10" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>34</v>
@@ -8155,7 +8131,7 @@
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
       <c r="I11" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>34</v>
@@ -8163,19 +8139,19 @@
     </row>
     <row r="12">
       <c r="A12" s="47" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G12" s="59"/>
       <c r="I12" s="21"/>
@@ -8185,19 +8161,19 @@
     </row>
     <row r="13">
       <c r="A13" s="47" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L13" s="18" t="s">
         <v>34</v>
@@ -8212,7 +8188,7 @@
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
       <c r="F14" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L14" s="18" t="s">
         <v>34</v>
@@ -8220,14 +8196,14 @@
     </row>
     <row r="15">
       <c r="A15" s="47" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59"/>
       <c r="F15" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L15" s="18" t="s">
         <v>34</v>
@@ -8240,11 +8216,11 @@
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
       <c r="D16" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E16" s="59"/>
       <c r="H16" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L16" s="18" t="s">
         <v>34</v>
@@ -8255,18 +8231,18 @@
         <v>176</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="46"/>
       <c r="F17" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>34</v>
@@ -8274,13 +8250,13 @@
     </row>
     <row r="18">
       <c r="A18" s="47" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
       <c r="E18" s="46"/>
       <c r="G18" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>34</v>
@@ -8310,19 +8286,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>22</v>
@@ -8330,14 +8306,14 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>34</v>
@@ -8349,13 +8325,13 @@
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>34</v>
@@ -8363,17 +8339,17 @@
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>34</v>
@@ -8384,7 +8360,7 @@
         <v>117</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>34</v>
@@ -8396,7 +8372,7 @@
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>34</v>
@@ -8404,11 +8380,11 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>34</v>
@@ -8419,7 +8395,7 @@
         <v>276</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>34</v>
@@ -8427,10 +8403,10 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>34</v>
@@ -8441,10 +8417,10 @@
         <v>176</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>34</v>
@@ -8452,10 +8428,10 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>34</v>
@@ -8463,10 +8439,10 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>34</v>
@@ -8496,22 +8472,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>22</v>
@@ -8519,19 +8495,19 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F2" s="59"/>
       <c r="G2" s="18" t="s">
@@ -8543,16 +8519,16 @@
         <v>141</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="18" t="s">
@@ -8564,16 +8540,16 @@
         <v>522</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F4" s="59"/>
       <c r="G4" s="18" t="s">
@@ -8585,12 +8561,12 @@
         <v>276</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F5" s="59"/>
       <c r="G5" s="18" t="s">
@@ -8602,16 +8578,16 @@
         <v>528</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="18" t="s">
@@ -8623,19 +8599,19 @@
         <v>176</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>34</v>
@@ -8643,13 +8619,13 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>34</v>
@@ -23821,7 +23797,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="37.63"/>
+    <col customWidth="1" min="1" max="2" width="40.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -23829,76 +23805,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>534</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="57" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="57" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="57" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -23925,7 +23880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>22</v>
@@ -23933,7 +23888,7 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>34</v>
@@ -23941,7 +23896,7 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>34</v>
@@ -23957,7 +23912,7 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>34</v>
@@ -23965,7 +23920,7 @@
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>34</v>
@@ -23981,7 +23936,7 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>34</v>
@@ -23989,7 +23944,7 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>34</v>
@@ -23997,7 +23952,7 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>34</v>
@@ -24005,7 +23960,7 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>34</v>
@@ -24013,7 +23968,7 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>34</v>
@@ -24021,7 +23976,7 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>34</v>
@@ -24029,7 +23984,7 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>34</v>
